--- a/Swift_Experiments/strategy_2/analysis/strategy_2_analysis.xlsx
+++ b/Swift_Experiments/strategy_2/analysis/strategy_2_analysis.xlsx
@@ -663,14 +663,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US" sz="1400"/>
               <a:t>Includes: Setup, queuing, bootstrapping, stage in, execution, stage out, shutdown times</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -697,7 +692,10 @@
                 </a:solidFill>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US" sz="1400"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Queuing time accounts for the majority of the timing and of the variation. </a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1010,7 +1008,7 @@
         <c:axId val="-2088925248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="55000.0"/>
+          <c:max val="60000.0"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1297,11 +1295,8 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Includes: Setup, queuing, bootstrapping</a:t>
+              <a:t>Includes: setup, queueing , and bootstrapping times. </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1328,6 +1323,12 @@
                 </a:solidFill>
               </a:defRPr>
             </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Queuing time accounts for the majority of the timing and of the variation.</a:t>
+            </a:r>
             <a:endParaRPr lang="en-US" sz="1400"/>
           </a:p>
         </c:rich>
@@ -1641,7 +1642,7 @@
         <c:axId val="-2038003120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="55000.0"/>
+          <c:max val="60000.0"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1928,11 +1929,8 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Includes: Setup, queuing, bootstrapping</a:t>
+              <a:t>Includes: stage in, executing , and stage out times. </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1959,6 +1957,12 @@
                 </a:solidFill>
               </a:defRPr>
             </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>No staging, very little variation mostly due to log/bootstrap overheads.</a:t>
+            </a:r>
             <a:endParaRPr lang="en-US" sz="1400"/>
           </a:p>
         </c:rich>
@@ -2272,7 +2276,7 @@
         <c:axId val="-2030550480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="55000.0"/>
+          <c:max val="60000.0"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4751,6 +4755,7 @@
       <sheetName val="Tw_stampede_gordon"/>
       <sheetName val="Te_stampede_gordon"/>
       <sheetName val="plots"/>
+      <sheetName val="plots single"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -4803,6 +4808,7 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5506,8 +5512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Swift_Experiments/strategy_2/analysis/strategy_2_analysis.xlsx
+++ b/Swift_Experiments/strategy_2/analysis/strategy_2_analysis.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26905"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_2/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="28160" windowHeight="16740" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TTC_stampede_gordon" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,24 @@
     <sheet name="Te_stampede_gordon" sheetId="3" r:id="rId3"/>
     <sheet name="plots" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="Te_Executing_task_stampede_gordon" localSheetId="2">Te_stampede_gordon!$B$4:$E$5</definedName>
-    <definedName name="TTC_Time_to_completion_stampede_gordon" localSheetId="0">TTC_stampede_gordon!$B$4:$E$5</definedName>
-    <definedName name="Tw_Submitting_task_stampede_gordon" localSheetId="1">Tw_stampede_gordon!$B$4:$E$5</definedName>
+    <definedName name="Te_Executing_task_stampede_gordon_1" localSheetId="2">Te_stampede_gordon!$B$4:$B$10</definedName>
+    <definedName name="Te_Executing_task_stampede_gordon_2" localSheetId="2">Te_stampede_gordon!$C$4:$C$11</definedName>
+    <definedName name="Te_Executing_task_stampede_gordon_3" localSheetId="2">Te_stampede_gordon!$D$4:$D$10</definedName>
+    <definedName name="Te_Executing_task_stampede_gordon_4" localSheetId="2">Te_stampede_gordon!$E$4:$E$8</definedName>
+    <definedName name="Te_Executing_task_stampede_gordon_5" localSheetId="2">Te_stampede_gordon!$F$4:$F$9</definedName>
+    <definedName name="TTC_Time_to_completion_stampede_gordon_1" localSheetId="0">TTC_stampede_gordon!$B$4:$B$10</definedName>
+    <definedName name="TTC_Time_to_completion_stampede_gordon_2" localSheetId="0">TTC_stampede_gordon!$C$4:$C$11</definedName>
+    <definedName name="TTC_Time_to_completion_stampede_gordon_3" localSheetId="0">TTC_stampede_gordon!$D$4:$D$10</definedName>
+    <definedName name="TTC_Time_to_completion_stampede_gordon_4" localSheetId="0">TTC_stampede_gordon!$E$4:$E$8</definedName>
+    <definedName name="TTC_Time_to_completion_stampede_gordon_5" localSheetId="0">TTC_stampede_gordon!$F$4:$F$9</definedName>
+    <definedName name="Tw_Submitting_task_stampede_gordon_1" localSheetId="1">Tw_stampede_gordon!$B$4:$B$10</definedName>
+    <definedName name="Tw_Submitting_task_stampede_gordon_2" localSheetId="1">Tw_stampede_gordon!$C$4:$C$11</definedName>
+    <definedName name="Tw_Submitting_task_stampede_gordon_3" localSheetId="1">Tw_stampede_gordon!$D$4:$D$10</definedName>
+    <definedName name="Tw_Submitting_task_stampede_gordon_4" localSheetId="1">Tw_stampede_gordon!$E$4:$E$8</definedName>
+    <definedName name="Tw_Submitting_task_stampede_gordon_5" localSheetId="1">Tw_stampede_gordon!$F$4:$F$9</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -39,32 +48,107 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Te-Executing_task-stampede_gordon" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_2/analysis/stampede_gordon/Te-Executing_task-stampede_gordon.csv" tab="0" comma="1">
-      <textFields count="4">
-        <textField/>
-        <textField/>
-        <textField/>
+  <connection id="1" name="Te-Executing_task-stampede_gordon" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/32/Te-Executing_task-stampede_gordon.csv">
+      <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="TTC-Time_to_completion-stampede_gordon" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_2/analysis/stampede_gordon/TTC-Time_to_completion-stampede_gordon.csv" tab="0" comma="1">
-      <textFields count="4">
-        <textField/>
-        <textField/>
-        <textField/>
+  <connection id="2" name="Te-Executing_task-stampede_gordon1" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/128/Te-Executing_task-stampede_gordon.csv">
+      <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="Tw-Submitting_task-stampede_gordon" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_2/analysis/stampede_gordon/Tw-Submitting_task-stampede_gordon.csv" tab="0" comma="1">
-      <textFields count="4">
+  <connection id="3" name="Te-Executing_task-stampede_gordon2" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/512/Te-Executing_task-stampede_gordon.csv">
+      <textFields>
         <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="Te-Executing_task-stampede_gordon3" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/1024/Te-Executing_task-stampede_gordon.csv">
+      <textFields>
         <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="Te-Executing_task-stampede_gordon4" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/2048/Te-Executing_task-stampede_gordon.csv">
+      <textFields>
         <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="TTC-Time_to_completion-stampede_gordon" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/32/TTC-Time_to_completion-stampede_gordon.csv" comma="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="7" name="TTC-Time_to_completion-stampede_gordon1" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/128/TTC-Time_to_completion-stampede_gordon.csv" comma="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="8" name="TTC-Time_to_completion-stampede_gordon2" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/512/TTC-Time_to_completion-stampede_gordon.csv" comma="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="9" name="TTC-Time_to_completion-stampede_gordon3" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/1024/TTC-Time_to_completion-stampede_gordon.csv" comma="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="10" name="TTC-Time_to_completion-stampede_gordon4" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/2048/TTC-Time_to_completion-stampede_gordon.csv" comma="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="11" name="Tw-Submitting_task-stampede_gordon" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/32/Tw-Submitting_task-stampede_gordon.csv">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="12" name="Tw-Submitting_task-stampede_gordon1" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/128/Tw-Submitting_task-stampede_gordon.csv">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="13" name="Tw-Submitting_task-stampede_gordon2" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/512/Tw-Submitting_task-stampede_gordon.csv">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="14" name="Tw-Submitting_task-stampede_gordon3" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/1024/Tw-Submitting_task-stampede_gordon.csv">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="15" name="Tw-Submitting_task-stampede_gordon4" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/2048/Tw-Submitting_task-stampede_gordon.csv">
+      <textFields>
         <textField/>
       </textFields>
     </textPr>
@@ -73,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
   <si>
     <t>AVG</t>
   </si>
@@ -141,7 +225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,8 +244,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -187,6 +277,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -199,7 +300,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -207,6 +308,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -230,324 +342,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>TTC_stampede_gordon!$B$1:$E$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2048.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>TTC_stampede_gordon!$B$2:$E$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>21712.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18289.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29880.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>34765.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2072998816"/>
-        <c:axId val="-2079486592"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-2072998816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2079486592"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2079486592"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2072998816"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -786,42 +580,48 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>TTC_stampede_gordon!$B$3:$E$3</c:f>
+                <c:f>TTC_stampede_gordon!$B$3:$F$3</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>1079.5</c:v>
+                    <c:v>13482.08739666928</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5755.0</c:v>
+                    <c:v>25824.5736902996</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1109</c:v>
+                    <c:v>19812.88393829583</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>15723.5</c:v>
+                    <c:v>10262.55011193613</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>31085.56222857593</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>TTC_stampede_gordon!$B$3:$E$3</c:f>
+                <c:f>TTC_stampede_gordon!$B$3:$F$3</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>1079.5</c:v>
+                    <c:v>13482.08739666928</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5755.0</c:v>
+                    <c:v>25824.5736902996</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1109</c:v>
+                    <c:v>19812.88393829583</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>15723.5</c:v>
+                    <c:v>10262.55011193613</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>31085.56222857593</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -842,10 +642,10 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>TTC_stampede_gordon!$B$1:$E$1</c:f>
+              <c:f>TTC_stampede_gordon!$B$1:$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>32.0</c:v>
                 </c:pt>
@@ -856,6 +656,9 @@
                   <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2048.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -863,21 +666,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TTC_stampede_gordon!$B$2:$E$2</c:f>
+              <c:f>TTC_stampede_gordon!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>21712.5</c:v>
+                  <c:v>22559.28571428571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18289.0</c:v>
+                  <c:v>45147.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29880.0</c:v>
+                  <c:v>43496.42857142857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34765.5</c:v>
+                  <c:v>68992.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61463.33333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -894,11 +700,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2078750944"/>
-        <c:axId val="-2088925248"/>
+        <c:axId val="-2088268784"/>
+        <c:axId val="-2088483008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2078750944"/>
+        <c:axId val="-2088268784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,7 +803,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088925248"/>
+        <c:crossAx val="-2088483008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1005,10 +811,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2088925248"/>
+        <c:axId val="-2088483008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60000.0"/>
+          <c:max val="120000.0"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1119,7 +925,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2078750944"/>
+        <c:crossAx val="-2088268784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1168,7 +974,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1420,42 +1226,48 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Tw_stampede_gordon!$B$3:$E$3</c:f>
+                <c:f>Tw_stampede_gordon!$B$3:$F$3</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>1079.5</c:v>
+                    <c:v>11193.03794669662</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5737.5</c:v>
+                    <c:v>7860.075216606663</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8855.499999999998</c:v>
+                    <c:v>12557.03760750084</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>12017.5</c:v>
+                    <c:v>19654.53964100915</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>13556.04147849462</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Tw_stampede_gordon!$B$3:$E$3</c:f>
+                <c:f>Tw_stampede_gordon!$B$3:$F$3</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>1079.5</c:v>
+                    <c:v>11193.03794669662</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5737.5</c:v>
+                    <c:v>7860.075216606663</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8855.499999999998</c:v>
+                    <c:v>12557.03760750084</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>12017.5</c:v>
+                    <c:v>19654.53964100915</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>13556.04147849462</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1476,10 +1288,10 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>Tw_stampede_gordon!$B$1:$E$1</c:f>
+              <c:f>Tw_stampede_gordon!$B$1:$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>32.0</c:v>
                 </c:pt>
@@ -1490,6 +1302,9 @@
                   <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2048.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1497,21 +1312,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tw_stampede_gordon!$B$2:$E$2</c:f>
+              <c:f>Tw_stampede_gordon!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16308.5</c:v>
+                  <c:v>10038.14285714286</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12842.5</c:v>
+                  <c:v>7633.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20986.5</c:v>
+                  <c:v>16150.85714285714</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19057.5</c:v>
+                  <c:v>22883.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15451.83333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1528,11 +1346,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2074218384"/>
-        <c:axId val="-2038003120"/>
+        <c:axId val="-2087997520"/>
+        <c:axId val="-2087991632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2074218384"/>
+        <c:axId val="-2087997520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1631,7 +1449,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2038003120"/>
+        <c:crossAx val="-2087991632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1639,10 +1457,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2038003120"/>
+        <c:axId val="-2087991632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60000.0"/>
+          <c:max val="120000.0"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1753,7 +1571,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2074218384"/>
+        <c:crossAx val="-2087997520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1802,7 +1620,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2054,42 +1872,48 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Te_stampede_gordon!$B$3:$E$3</c:f>
+                <c:f>Te_stampede_gordon!$B$3:$F$3</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.0</c:v>
+                    <c:v>6410.266490263137</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>18.0</c:v>
+                    <c:v>28360.05378798043</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2234.0</c:v>
+                    <c:v>23984.46836620574</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3706</c:v>
+                    <c:v>9948.010288494871</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>36189.03798343729</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Te_stampede_gordon!$B$3:$E$3</c:f>
+                <c:f>Te_stampede_gordon!$B$3:$F$3</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.0</c:v>
+                    <c:v>6410.266490263137</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>18.0</c:v>
+                    <c:v>28360.05378798043</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2234.0</c:v>
+                    <c:v>23984.46836620574</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3706</c:v>
+                    <c:v>9948.010288494871</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>36189.03798343729</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2110,10 +1934,10 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>Te_stampede_gordon!$B$1:$E$1</c:f>
+              <c:f>Te_stampede_gordon!$B$1:$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>32.0</c:v>
                 </c:pt>
@@ -2124,6 +1948,9 @@
                   <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2048.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2131,21 +1958,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Te_stampede_gordon!$B$2:$E$2</c:f>
+              <c:f>Te_stampede_gordon!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5403.0</c:v>
+                  <c:v>12522.85714285714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5446.0</c:v>
+                  <c:v>39991.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8893.0</c:v>
+                  <c:v>36604.14285714285</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15707.0</c:v>
+                  <c:v>66821.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54327.16666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2162,11 +1992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2030552240"/>
-        <c:axId val="-2030550480"/>
+        <c:axId val="-2087865680"/>
+        <c:axId val="-2087859792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2030552240"/>
+        <c:axId val="-2087865680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2265,7 +2095,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2030550480"/>
+        <c:crossAx val="-2087859792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2273,10 +2103,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2030550480"/>
+        <c:axId val="-2087859792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60000.0"/>
+          <c:max val="120000.0"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2387,7 +2217,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2030552240"/>
+        <c:crossAx val="-2087865680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2414,6 +2244,2358 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:rPr>
+              <a:t>Experiment</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:rPr>
+              <a:t> 2 - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:rPr>
+              <a:t>TTC - Swift</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:rPr>
+              <a:t> on Stampede and Gordon</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="NimbusRomNo9L" charset="0"/>
+              <a:ea typeface="NimbusRomNo9L" charset="0"/>
+              <a:cs typeface="NimbusRomNo9L" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="NimbusRomNo9L" charset="0"/>
+              <a:ea typeface="NimbusRomNo9L" charset="0"/>
+              <a:cs typeface="NimbusRomNo9L" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TTCmeasured</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>TTC_stampede_gordon!$B$3:$F$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>13482.08739666928</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>25824.5736902996</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>19812.88393829583</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10262.55011193613</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>31085.56222857593</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>TTC_stampede_gordon!$B$3:$F$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>13482.08739666928</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>25824.5736902996</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>19812.88393829583</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10262.55011193613</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>31085.56222857593</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>TTC_stampede_gordon!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TTC_stampede_gordon!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>22559.28571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45147.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43496.42857142857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68992.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61463.33333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>TTCideal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>TTC_stampede_gordon!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TTC_stampede_gordon!$O$2:$S$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4800.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2087782064"/>
+        <c:axId val="-2088440656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2087782064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2088440656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2088440656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120000.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2087782064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="NimbusRomNo9L" charset="0"/>
+              <a:ea typeface="NimbusRomNo9L" charset="0"/>
+              <a:cs typeface="NimbusRomNo9L" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:rPr>
+              <a:t>Experiment </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:rPr>
+              <a:t>2 - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:rPr>
+              <a:t>Tw - Swift</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:rPr>
+              <a:t> on Stampede and Gordon</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="NimbusRomNo9L" charset="0"/>
+              <a:ea typeface="NimbusRomNo9L" charset="0"/>
+              <a:cs typeface="NimbusRomNo9L" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="NimbusRomNo9L" charset="0"/>
+              <a:ea typeface="NimbusRomNo9L" charset="0"/>
+              <a:cs typeface="NimbusRomNo9L" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tw</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Tw_stampede_gordon!$B$3:$F$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>11193.03794669662</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7860.075216606663</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>12557.03760750084</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>19654.53964100915</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>13556.04147849462</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Tw_stampede_gordon!$B$3:$F$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>11193.03794669662</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7860.075216606663</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>12557.03760750084</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>19654.53964100915</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>13556.04147849462</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tw_stampede_gordon!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tw_stampede_gordon!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10038.14285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7633.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16150.85714285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22883.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15451.83333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2088250288"/>
+        <c:axId val="-2087756240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2088250288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2087756240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2087756240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120000.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2088250288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="NimbusRomNo9L" charset="0"/>
+              <a:ea typeface="NimbusRomNo9L" charset="0"/>
+              <a:cs typeface="NimbusRomNo9L" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TTCmeasured</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>TTC_stampede_gordon!$B$3:$F$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>13482.08739666928</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>25824.5736902996</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>19812.88393829583</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10262.55011193613</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>31085.56222857593</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>TTC_stampede_gordon!$B$3:$F$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>13482.08739666928</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>25824.5736902996</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>19812.88393829583</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10262.55011193613</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>31085.56222857593</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>TTC_stampede_gordon!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TTC_stampede_gordon!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>22559.28571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45147.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43496.42857142857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68992.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61463.33333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>TTCideal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>TTC_stampede_gordon!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TTC_stampede_gordon!$O$2:$S$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4800.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2027926448"/>
+        <c:axId val="1762322944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2027926448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1762322944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1762322944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120000.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2027926448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="NimbusRomNo9L" charset="0"/>
+              <a:ea typeface="NimbusRomNo9L" charset="0"/>
+              <a:cs typeface="NimbusRomNo9L" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tw</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Tw_stampede_gordon!$B$3:$F$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>11193.03794669662</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7860.075216606663</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>12557.03760750084</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>19654.53964100915</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>13556.04147849462</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Tw_stampede_gordon!$B$3:$F$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>11193.03794669662</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7860.075216606663</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>12557.03760750084</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>19654.53964100915</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>13556.04147849462</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tw_stampede_gordon!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tw_stampede_gordon!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10038.14285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7633.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16150.85714285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22883.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15451.83333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1782717872"/>
+        <c:axId val="1782970320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1782717872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1782970320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1782970320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120000.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1782717872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="NimbusRomNo9L" charset="0"/>
+              <a:ea typeface="NimbusRomNo9L" charset="0"/>
+              <a:cs typeface="NimbusRomNo9L" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2596,6 +4778,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -4608,42 +6910,1516 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4741,89 +8517,195 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="TTC_stampede"/>
-      <sheetName val="Tw_stampede"/>
-      <sheetName val="Te_stampede"/>
-      <sheetName val="TTC_stampede_gordon"/>
-      <sheetName val="Tw_stampede_gordon"/>
-      <sheetName val="Te_stampede_gordon"/>
-      <sheetName val="plots"/>
-      <sheetName val="plots single"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1">
-            <v>8</v>
-          </cell>
-          <cell r="C1">
-            <v>32</v>
-          </cell>
-          <cell r="D1">
-            <v>256</v>
-          </cell>
-          <cell r="E1">
-            <v>2048</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>999</v>
-          </cell>
-          <cell r="C2">
-            <v>1006.5</v>
-          </cell>
-          <cell r="D2">
-            <v>1071</v>
-          </cell>
-          <cell r="E2">
-            <v>7926</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>7.4049532971743544</v>
-          </cell>
-          <cell r="C3">
-            <v>3.6855573979159968</v>
-          </cell>
-          <cell r="D3">
-            <v>17.402107152104694</v>
-          </cell>
-          <cell r="E3">
-            <v>46.538514515757093</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TTC-Time_to_completion-stampede_gordon_5" refreshOnLoad="1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TTC-Time_to_completion-stampede_gordon" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tw-Submitting_task-stampede_gordon_1" refreshOnLoad="1" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Te-Executing_task-stampede_gordon_5" refreshOnLoad="1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Te-Executing_task-stampede_gordon_4" refreshOnLoad="1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Te-Executing_task-stampede_gordon_3" refreshOnLoad="1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Te-Executing_task-stampede_gordon_2" refreshOnLoad="1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Te-Executing_task-stampede_gordon_1" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tw-Submitting_task-stampede_gordon" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TTC-Time_to_completion-stampede_gordon_4" refreshOnLoad="1" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Te-Executing_task-stampede_gordon" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TTC-Time_to_completion-stampede_gordon_3" refreshOnLoad="1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TTC-Time_to_completion-stampede_gordon_2" refreshOnLoad="1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TTC-Time_to_completion-stampede_gordon_1" refreshOnLoad="1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tw-Submitting_task-stampede_gordon_5" refreshOnLoad="1" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tw-Submitting_task-stampede_gordon_4" refreshOnLoad="1" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tw-Submitting_task-stampede_gordon_3" refreshOnLoad="1" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tw-Submitting_task-stampede_gordon_2" refreshOnLoad="1" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5089,18 +8971,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="5" width="6.1640625" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="3">
         <v>32</v>
@@ -5112,136 +8995,569 @@
         <v>512</v>
       </c>
       <c r="E1" s="3">
+        <v>1024</v>
+      </c>
+      <c r="F1" s="3">
         <v>2048</v>
       </c>
+      <c r="H1" s="3">
+        <v>32</v>
+      </c>
+      <c r="I1" s="3">
+        <v>128</v>
+      </c>
+      <c r="J1" s="3">
+        <v>512</v>
+      </c>
+      <c r="K1" s="3">
+        <v>1024</v>
+      </c>
+      <c r="L1" s="3">
+        <v>2048</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="3">
+        <v>32</v>
+      </c>
+      <c r="P1" s="3">
+        <v>128</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>512</v>
+      </c>
+      <c r="R1" s="3">
+        <v>1024</v>
+      </c>
+      <c r="S1" s="3">
+        <v>2048</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <f>AVERAGE(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26)))</f>
-        <v>21712.5</v>
+        <f>AVERAGE(B4:B14)</f>
+        <v>22559.285714285714</v>
       </c>
       <c r="C2" s="5">
-        <f>AVERAGE(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26)))</f>
-        <v>18289</v>
+        <f>AVERAGE(C4:C14)</f>
+        <v>45147</v>
       </c>
       <c r="D2" s="5">
-        <f>AVERAGE(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26)))</f>
-        <v>29880</v>
+        <f>AVERAGE(D4:D14)</f>
+        <v>43496.428571428572</v>
       </c>
       <c r="E2" s="5">
-        <f>AVERAGE(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26)))</f>
-        <v>34765.5</v>
+        <f>AVERAGE(E4:E14)</f>
+        <v>68992.600000000006</v>
+      </c>
+      <c r="F2" s="5">
+        <f>AVERAGE(F4:F14)</f>
+        <v>61463.333333333336</v>
+      </c>
+      <c r="H2" s="11">
+        <f>AVERAGE(H4:H11)</f>
+        <v>6.7640112994424308</v>
+      </c>
+      <c r="I2" s="11">
+        <f t="shared" ref="I2:K2" si="0">AVERAGE(I4:I11)</f>
+        <v>3.779780686789219</v>
+      </c>
+      <c r="J2" s="11">
+        <f t="shared" si="0"/>
+        <v>3.2986160962834106</v>
+      </c>
+      <c r="K2" s="11">
+        <f t="shared" si="0"/>
+        <v>3.5402715913277327</v>
+      </c>
+      <c r="L2" s="11">
+        <f>AVERAGE(L4:L11)</f>
+        <v>10.538980266858733</v>
+      </c>
+      <c r="M2" s="10">
+        <f>AVERAGE(H2:L2)</f>
+        <v>5.5843319881403053</v>
+      </c>
+      <c r="O2" s="8">
+        <v>1200</v>
+      </c>
+      <c r="P2" s="8">
+        <v>1200</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>1200</v>
+      </c>
+      <c r="R2" s="8">
+        <v>2400</v>
+      </c>
+      <c r="S2" s="8">
+        <v>4800</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <f>_xlfn.STDEV.S(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26)))/SQRT(COUNT(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26))))</f>
-        <v>1079.4999999999998</v>
-      </c>
-      <c r="C3" s="5">
-        <f>_xlfn.STDEV.S(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26)))/SQRT(COUNT(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26))))</f>
-        <v>5755</v>
-      </c>
-      <c r="D3" s="5">
-        <f>_xlfn.STDEV.S(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26)))/SQRT(COUNT(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26))))</f>
-        <v>11089.999999999998</v>
-      </c>
-      <c r="E3" s="5">
-        <f>_xlfn.STDEV.S(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26)))/SQRT(COUNT(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26))))</f>
-        <v>15723.499999999998</v>
-      </c>
+      <c r="B3" s="12">
+        <f>_xlfn.STDEV.S(B4:B14)</f>
+        <v>13482.087396669276</v>
+      </c>
+      <c r="C3" s="4">
+        <f>_xlfn.STDEV.S(C4:C14)</f>
+        <v>25824.5736902996</v>
+      </c>
+      <c r="D3" s="4">
+        <f>_xlfn.STDEV.S(D4:D14)</f>
+        <v>19812.883938295829</v>
+      </c>
+      <c r="E3" s="4">
+        <f>_xlfn.STDEV.S(E4:E14)</f>
+        <v>10262.550111936125</v>
+      </c>
+      <c r="F3" s="4">
+        <f>_xlfn.STDEV.S(F4:F14)</f>
+        <v>31085.562228575927</v>
+      </c>
+      <c r="H3" s="13">
+        <f>_xlfn.STDEV.S(H4:H11)</f>
+        <v>3.1234767135612627</v>
+      </c>
+      <c r="I3" s="13">
+        <f t="shared" ref="I3:K3" si="1">_xlfn.STDEV.S(I4:I11)</f>
+        <v>2.6769709543254345</v>
+      </c>
+      <c r="J3" s="13">
+        <f t="shared" si="1"/>
+        <v>1.5646718229659833</v>
+      </c>
+      <c r="K3" s="13">
+        <f t="shared" si="1"/>
+        <v>0.51931121435128558</v>
+      </c>
+      <c r="L3" s="13">
+        <f>_xlfn.STDEV.S(L4:L11)</f>
+        <v>7.5388137887061779</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22792</v>
+        <v>20633</v>
       </c>
       <c r="C4">
-        <v>24044</v>
+        <v>12534</v>
       </c>
       <c r="D4">
-        <v>40970</v>
+        <v>18790</v>
       </c>
       <c r="E4">
+        <v>78284</v>
+      </c>
+      <c r="F4">
         <v>19042</v>
       </c>
+      <c r="H4" s="7">
+        <f>(O4/B4)*100</f>
+        <v>5.8159259438763149</v>
+      </c>
+      <c r="I4" s="7">
+        <f>(P4/C4)*100</f>
+        <v>9.5739588319770217</v>
+      </c>
+      <c r="J4" s="7">
+        <f>(Q4/D4)*100</f>
+        <v>6.386375731772219</v>
+      </c>
+      <c r="K4" s="7">
+        <f>(R4/E4)*100</f>
+        <v>3.0657605640999437</v>
+      </c>
+      <c r="L4" s="7">
+        <f>(S4/F4)*100</f>
+        <v>25.207436193677136</v>
+      </c>
+      <c r="O4" s="8">
+        <v>1200</v>
+      </c>
+      <c r="P4" s="8">
+        <v>1200</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>1200</v>
+      </c>
+      <c r="R4" s="8">
+        <v>2400</v>
+      </c>
+      <c r="S4" s="8">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20633</v>
+        <v>11182</v>
       </c>
       <c r="C5">
-        <v>12534</v>
+        <v>24044</v>
       </c>
       <c r="D5">
-        <v>18790</v>
+        <v>40970</v>
       </c>
       <c r="E5">
+        <v>80928</v>
+      </c>
+      <c r="F5">
         <v>50489</v>
       </c>
+      <c r="H5" s="7">
+        <f t="shared" ref="H5:H10" si="2">(O5/B5)*100</f>
+        <v>10.731532820604544</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" ref="I5:I11" si="3">(P5/C5)*100</f>
+        <v>4.9908501081350858</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" ref="J5:J10" si="4">(Q5/D5)*100</f>
+        <v>2.9289724188430557</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" ref="K5:K8" si="5">(R5/E5)*100</f>
+        <v>2.9655990510083039</v>
+      </c>
+      <c r="L5" s="7">
+        <f t="shared" ref="L5:L9" si="6">(S5/F5)*100</f>
+        <v>9.5070213313791125</v>
+      </c>
+      <c r="O5" s="8">
+        <v>1200</v>
+      </c>
+      <c r="P5" s="8">
+        <v>1200</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>1200</v>
+      </c>
+      <c r="R5" s="8">
+        <v>2400</v>
+      </c>
+      <c r="S5" s="8">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>22792</v>
+      </c>
+      <c r="C6">
+        <v>47131</v>
+      </c>
+      <c r="D6">
+        <v>61620</v>
+      </c>
+      <c r="E6">
+        <v>67106</v>
+      </c>
+      <c r="F6">
+        <v>90171</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="2"/>
+        <v>5.2650052650052652</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="3"/>
+        <v>2.5460949269058579</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="4"/>
+        <v>1.9474196689386565</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="5"/>
+        <v>3.5764313176169042</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="6"/>
+        <v>5.3232192168213723</v>
+      </c>
+      <c r="O6" s="8">
+        <v>1200</v>
+      </c>
+      <c r="P6" s="8">
+        <v>1200</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>1200</v>
+      </c>
+      <c r="R6" s="8">
+        <v>2400</v>
+      </c>
+      <c r="S6" s="8">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>28211</v>
+      </c>
+      <c r="C7">
+        <v>57507</v>
+      </c>
+      <c r="D7">
+        <v>34681</v>
+      </c>
+      <c r="E7">
+        <v>60301</v>
+      </c>
+      <c r="F7">
+        <v>58426</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="2"/>
+        <v>4.2536599198894045</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="3"/>
+        <v>2.0867024883927172</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="4"/>
+        <v>3.460107840027681</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="5"/>
+        <v>3.9800334986152799</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" si="6"/>
+        <v>8.2155204874542154</v>
+      </c>
+      <c r="O7" s="8">
+        <v>1200</v>
+      </c>
+      <c r="P7" s="8">
+        <v>1200</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>1200</v>
+      </c>
+      <c r="R7" s="8">
+        <v>2400</v>
+      </c>
+      <c r="S7" s="8">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>12281</v>
+      </c>
+      <c r="C8">
+        <v>68957</v>
+      </c>
+      <c r="D8">
+        <v>78000</v>
+      </c>
+      <c r="E8">
+        <v>58344</v>
+      </c>
+      <c r="F8">
+        <v>46224</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="2"/>
+        <v>9.7711912710691315</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="3"/>
+        <v>1.7402149165421927</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="4"/>
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="5"/>
+        <v>4.113533525298231</v>
+      </c>
+      <c r="L8" s="7">
+        <f t="shared" si="6"/>
+        <v>10.384215991692628</v>
+      </c>
+      <c r="O8" s="8">
+        <v>1200</v>
+      </c>
+      <c r="P8" s="8">
+        <v>1200</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>1200</v>
+      </c>
+      <c r="R8" s="8">
+        <v>2400</v>
+      </c>
+      <c r="S8" s="8">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>49618</v>
+      </c>
+      <c r="C9">
+        <v>34626</v>
+      </c>
+      <c r="D9">
+        <v>33722</v>
+      </c>
+      <c r="F9">
+        <v>104428</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="2"/>
+        <v>2.4184771655447621</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="3"/>
+        <v>3.4656038814763472</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="4"/>
+        <v>3.5585077990629266</v>
+      </c>
+      <c r="L9" s="7">
+        <f t="shared" si="6"/>
+        <v>4.5964683801279351</v>
+      </c>
+      <c r="O9" s="8">
+        <v>1200</v>
+      </c>
+      <c r="P9" s="8">
+        <v>1200</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>1200</v>
+      </c>
+      <c r="R9" s="8">
+        <v>2400</v>
+      </c>
+      <c r="S9" s="8">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>13198</v>
+      </c>
+      <c r="C10">
+        <v>89692</v>
+      </c>
+      <c r="D10">
+        <v>36692</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="2"/>
+        <v>9.0922867101075919</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="3"/>
+        <v>1.3379119653926772</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="4"/>
+        <v>3.2704676768777934</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1200</v>
+      </c>
+      <c r="P10" s="8">
+        <v>1200</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>1200</v>
+      </c>
+      <c r="R10" s="8">
+        <v>2400</v>
+      </c>
+      <c r="S10" s="8">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C11">
+        <v>26685</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="3"/>
+        <v>4.4969083754918495</v>
+      </c>
+      <c r="O11" s="8">
+        <v>1200</v>
+      </c>
+      <c r="P11" s="8">
+        <v>1200</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>1200</v>
+      </c>
+      <c r="R11" s="8">
+        <v>2400</v>
+      </c>
+      <c r="S11" s="8">
+        <v>4800</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="5" width="6.1640625" customWidth="1"/>
+    <col min="2" max="6" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="3">
         <v>32</v>
@@ -5253,113 +9569,199 @@
         <v>512</v>
       </c>
       <c r="E1" s="3">
+        <v>1024</v>
+      </c>
+      <c r="F1" s="3">
         <v>2048</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6">
-        <f>AVERAGE(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26)))</f>
-        <v>16308.5</v>
+        <f>AVERAGE(B4:B14)</f>
+        <v>10038.142857142857</v>
       </c>
       <c r="C2" s="6">
-        <f>AVERAGE(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26)))</f>
-        <v>12842.5</v>
+        <f>AVERAGE(C4:C14)</f>
+        <v>7633.125</v>
       </c>
       <c r="D2" s="6">
-        <f>AVERAGE(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26)))</f>
-        <v>20986.5</v>
+        <f>AVERAGE(D4:D14)</f>
+        <v>16150.857142857143</v>
       </c>
       <c r="E2" s="6">
-        <f>AVERAGE(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26)))</f>
-        <v>19057.5</v>
+        <f>AVERAGE(E4:E14)</f>
+        <v>22883</v>
+      </c>
+      <c r="F2" s="6">
+        <f>AVERAGE(F4:F14)</f>
+        <v>15451.833333333334</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <f>_xlfn.STDEV.S(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26)))/SQRT(COUNT(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26))))</f>
-        <v>1079.4999999999998</v>
+        <f>_xlfn.STDEV.S(B4:B14)</f>
+        <v>11193.037946696619</v>
       </c>
       <c r="C3" s="4">
-        <f>_xlfn.STDEV.S(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26)))/SQRT(COUNT(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26))))</f>
-        <v>5737.5</v>
+        <f>_xlfn.STDEV.S(C4:C14)</f>
+        <v>7860.0752166066632</v>
       </c>
       <c r="D3" s="4">
-        <f>_xlfn.STDEV.S(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26)))/SQRT(COUNT(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26))))</f>
-        <v>8855.4999999999982</v>
+        <f>_xlfn.STDEV.S(D4:D14)</f>
+        <v>12557.037607500843</v>
       </c>
       <c r="E3" s="4">
-        <f>_xlfn.STDEV.S(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26)))/SQRT(COUNT(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26))))</f>
-        <v>12017.5</v>
+        <f>_xlfn.STDEV.S(E4:E14)</f>
+        <v>19654.539641009149</v>
+      </c>
+      <c r="F3" s="4">
+        <f>_xlfn.STDEV.S(F4:F14)</f>
+        <v>13556.041478494622</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17388</v>
+        <v>15229</v>
       </c>
       <c r="C4">
-        <v>18580</v>
+        <v>7105</v>
       </c>
       <c r="D4">
-        <v>29842</v>
+        <v>12131</v>
       </c>
       <c r="E4">
+        <v>4236</v>
+      </c>
+      <c r="F4">
         <v>7040</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15229</v>
+        <v>113</v>
       </c>
       <c r="C5">
-        <v>7105</v>
+        <v>18580</v>
       </c>
       <c r="D5">
-        <v>12131</v>
+        <v>29842</v>
       </c>
       <c r="E5">
+        <v>52810</v>
+      </c>
+      <c r="F5">
         <v>31075</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>17388</v>
+      </c>
+      <c r="C6">
+        <v>20008</v>
+      </c>
+      <c r="D6">
+        <v>34112</v>
+      </c>
+      <c r="E6">
+        <v>6099</v>
+      </c>
+      <c r="F6">
+        <v>3388</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>6379</v>
+      </c>
+      <c r="C7">
+        <v>5571</v>
+      </c>
+      <c r="D7">
+        <v>7406</v>
+      </c>
+      <c r="E7">
+        <v>24051</v>
+      </c>
+      <c r="F7">
+        <v>19202</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>952</v>
+      </c>
+      <c r="C8">
+        <v>8407</v>
+      </c>
+      <c r="D8">
+        <v>6273</v>
+      </c>
+      <c r="E8">
+        <v>27219</v>
+      </c>
+      <c r="F8">
+        <v>30899</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>29680</v>
+      </c>
+      <c r="C9">
+        <v>106</v>
+      </c>
+      <c r="D9">
+        <v>1516</v>
+      </c>
+      <c r="F9">
+        <v>1107</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>526</v>
+      </c>
+      <c r="C10">
+        <v>572</v>
+      </c>
+      <c r="D10">
+        <v>21776</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C11">
+        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -5370,19 +9772,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="5.1640625" customWidth="1"/>
-    <col min="4" max="5" width="6.1640625" customWidth="1"/>
+    <col min="2" max="5" width="6.1640625" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="3">
         <v>32</v>
@@ -5394,52 +9796,63 @@
         <v>512</v>
       </c>
       <c r="E1" s="3">
+        <v>1024</v>
+      </c>
+      <c r="F1" s="3">
         <v>2048</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6">
-        <f>AVERAGE(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26)))</f>
-        <v>5403</v>
+        <f>AVERAGE(B4:B11)</f>
+        <v>12522.857142857143</v>
       </c>
       <c r="C2" s="6">
-        <f>AVERAGE(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26)))</f>
-        <v>5446</v>
+        <f t="shared" ref="C2:F2" si="0">AVERAGE(C4:C11)</f>
+        <v>39991</v>
       </c>
       <c r="D2" s="6">
-        <f>AVERAGE(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26)))</f>
-        <v>8893</v>
+        <f t="shared" si="0"/>
+        <v>36604.142857142855</v>
       </c>
       <c r="E2" s="6">
-        <f>AVERAGE(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26)))</f>
-        <v>15707</v>
+        <f t="shared" si="0"/>
+        <v>66821.8</v>
+      </c>
+      <c r="F2" s="6">
+        <f t="shared" si="0"/>
+        <v>54327.166666666664</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <f>_xlfn.STDEV.S(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26)))/SQRT(COUNT(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26))))</f>
-        <v>0</v>
+        <f>_xlfn.STDEV.S(B4:B11)</f>
+        <v>6410.2664902631377</v>
       </c>
       <c r="C3" s="4">
-        <f>_xlfn.STDEV.S(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26)))/SQRT(COUNT(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26))))</f>
-        <v>18</v>
+        <f t="shared" ref="C3:F3" si="1">_xlfn.STDEV.S(C4:C11)</f>
+        <v>28360.053787980425</v>
       </c>
       <c r="D3" s="4">
-        <f>_xlfn.STDEV.S(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26)))/SQRT(COUNT(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26))))</f>
-        <v>2234</v>
+        <f t="shared" si="1"/>
+        <v>23984.468366205743</v>
       </c>
       <c r="E3" s="4">
-        <f>_xlfn.STDEV.S(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26)))/SQRT(COUNT(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26))))</f>
-        <v>3705.9999999999995</v>
+        <f t="shared" si="1"/>
+        <v>9948.0102884948719</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" si="1"/>
+        <v>36189.037983437287</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -5447,60 +9860,135 @@
         <v>5403</v>
       </c>
       <c r="C4">
-        <v>5464</v>
+        <v>5428</v>
       </c>
       <c r="D4">
-        <v>11127</v>
+        <v>6659</v>
       </c>
       <c r="E4">
+        <v>74047</v>
+      </c>
+      <c r="F4">
         <v>12001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5403</v>
+        <v>11075</v>
       </c>
       <c r="C5">
-        <v>5428</v>
+        <v>5464</v>
       </c>
       <c r="D5">
-        <v>6659</v>
+        <v>11127</v>
       </c>
       <c r="E5">
+        <v>80658</v>
+      </c>
+      <c r="F5">
         <v>19413</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>5403</v>
+      </c>
+      <c r="C6">
+        <v>46692</v>
+      </c>
+      <c r="D6">
+        <v>61170</v>
+      </c>
+      <c r="E6">
+        <v>61005</v>
+      </c>
+      <c r="F6">
+        <v>86782</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>21831</v>
+      </c>
+      <c r="C7">
+        <v>51936</v>
+      </c>
+      <c r="D7">
+        <v>34477</v>
+      </c>
+      <c r="E7">
+        <v>60242</v>
+      </c>
+      <c r="F7">
+        <v>58358</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>11332</v>
+      </c>
+      <c r="C8">
+        <v>60549</v>
+      </c>
+      <c r="D8">
+        <v>72508</v>
+      </c>
+      <c r="E8">
+        <v>58157</v>
+      </c>
+      <c r="F8">
+        <v>46089</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>19938</v>
+      </c>
+      <c r="C9">
+        <v>34519</v>
+      </c>
+      <c r="D9">
+        <v>33665</v>
+      </c>
+      <c r="F9">
+        <v>103320</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>12678</v>
+      </c>
+      <c r="C10">
+        <v>89119</v>
+      </c>
+      <c r="D10">
+        <v>36623</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C11">
+        <v>26221</v>
       </c>
     </row>
   </sheetData>
@@ -5512,8 +10000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView topLeftCell="F9" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Swift_Experiments/strategy_2/analysis/strategy_2_analysis.xlsx
+++ b/Swift_Experiments/strategy_2/analysis/strategy_2_analysis.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26905"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="28160" windowHeight="16740" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TTC_stampede_gordon" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,24 @@
     <sheet name="Te_stampede_gordon" sheetId="3" r:id="rId3"/>
     <sheet name="plots" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="Te_Executing_task_stampede_gordon" localSheetId="2">Te_stampede_gordon!$B$4:$E$5</definedName>
-    <definedName name="TTC_Time_to_completion_stampede_gordon" localSheetId="0">TTC_stampede_gordon!$B$4:$E$5</definedName>
-    <definedName name="Tw_Submitting_task_stampede_gordon" localSheetId="1">Tw_stampede_gordon!$B$4:$E$5</definedName>
+    <definedName name="Te_Executing_task_stampede_gordon_1" localSheetId="2">Te_stampede_gordon!$B$4:$B$10</definedName>
+    <definedName name="Te_Executing_task_stampede_gordon_2" localSheetId="2">Te_stampede_gordon!$C$4:$C$11</definedName>
+    <definedName name="Te_Executing_task_stampede_gordon_3" localSheetId="2">Te_stampede_gordon!$D$4:$D$10</definedName>
+    <definedName name="Te_Executing_task_stampede_gordon_4" localSheetId="2">Te_stampede_gordon!$E$4:$E$8</definedName>
+    <definedName name="Te_Executing_task_stampede_gordon_5" localSheetId="2">Te_stampede_gordon!$F$4:$F$9</definedName>
+    <definedName name="TTC_Time_to_completion_stampede_gordon_1" localSheetId="0">TTC_stampede_gordon!$B$4:$B$10</definedName>
+    <definedName name="TTC_Time_to_completion_stampede_gordon_2" localSheetId="0">TTC_stampede_gordon!$C$4:$C$11</definedName>
+    <definedName name="TTC_Time_to_completion_stampede_gordon_3" localSheetId="0">TTC_stampede_gordon!$D$4:$D$10</definedName>
+    <definedName name="TTC_Time_to_completion_stampede_gordon_4" localSheetId="0">TTC_stampede_gordon!$E$4:$E$8</definedName>
+    <definedName name="TTC_Time_to_completion_stampede_gordon_5" localSheetId="0">TTC_stampede_gordon!$F$4:$F$9</definedName>
+    <definedName name="Tw_Submitting_task_stampede_gordon_1" localSheetId="1">Tw_stampede_gordon!$B$4:$B$10</definedName>
+    <definedName name="Tw_Submitting_task_stampede_gordon_2" localSheetId="1">Tw_stampede_gordon!$C$4:$C$11</definedName>
+    <definedName name="Tw_Submitting_task_stampede_gordon_3" localSheetId="1">Tw_stampede_gordon!$D$4:$D$10</definedName>
+    <definedName name="Tw_Submitting_task_stampede_gordon_4" localSheetId="1">Tw_stampede_gordon!$E$4:$E$8</definedName>
+    <definedName name="Tw_Submitting_task_stampede_gordon_5" localSheetId="1">Tw_stampede_gordon!$F$4:$F$9</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -39,32 +48,107 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Te-Executing_task-stampede_gordon" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_2/analysis/stampede_gordon/Te-Executing_task-stampede_gordon.csv" tab="0" comma="1">
-      <textFields count="4">
-        <textField/>
-        <textField/>
-        <textField/>
+  <connection id="1" name="Te-Executing_task-stampede_gordon" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/32/Te-Executing_task-stampede_gordon.csv">
+      <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="TTC-Time_to_completion-stampede_gordon" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_2/analysis/stampede_gordon/TTC-Time_to_completion-stampede_gordon.csv" tab="0" comma="1">
-      <textFields count="4">
-        <textField/>
-        <textField/>
-        <textField/>
+  <connection id="2" name="Te-Executing_task-stampede_gordon1" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/128/Te-Executing_task-stampede_gordon.csv">
+      <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="Tw-Submitting_task-stampede_gordon" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_2/analysis/stampede_gordon/Tw-Submitting_task-stampede_gordon.csv" tab="0" comma="1">
-      <textFields count="4">
+  <connection id="3" name="Te-Executing_task-stampede_gordon2" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/512/Te-Executing_task-stampede_gordon.csv">
+      <textFields>
         <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="Te-Executing_task-stampede_gordon3" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/1024/Te-Executing_task-stampede_gordon.csv">
+      <textFields>
         <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="Te-Executing_task-stampede_gordon4" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/2048/Te-Executing_task-stampede_gordon.csv">
+      <textFields>
         <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="TTC-Time_to_completion-stampede_gordon" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/32/TTC-Time_to_completion-stampede_gordon.csv" comma="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="7" name="TTC-Time_to_completion-stampede_gordon1" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/128/TTC-Time_to_completion-stampede_gordon.csv" comma="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="8" name="TTC-Time_to_completion-stampede_gordon2" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/512/TTC-Time_to_completion-stampede_gordon.csv" comma="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="9" name="TTC-Time_to_completion-stampede_gordon3" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/1024/TTC-Time_to_completion-stampede_gordon.csv" comma="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="10" name="TTC-Time_to_completion-stampede_gordon4" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/2048/TTC-Time_to_completion-stampede_gordon.csv" comma="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="11" name="Tw-Submitting_task-stampede_gordon" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/32/Tw-Submitting_task-stampede_gordon.csv">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="12" name="Tw-Submitting_task-stampede_gordon1" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/128/Tw-Submitting_task-stampede_gordon.csv">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="13" name="Tw-Submitting_task-stampede_gordon2" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/512/Tw-Submitting_task-stampede_gordon.csv">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="14" name="Tw-Submitting_task-stampede_gordon3" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/1024/Tw-Submitting_task-stampede_gordon.csv">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="15" name="Tw-Submitting_task-stampede_gordon4" type="6" refreshedVersion="0" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_2/analysis/stampede_gordon/2048/Tw-Submitting_task-stampede_gordon.csv">
+      <textFields>
         <textField/>
       </textFields>
     </textPr>
@@ -73,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
   <si>
     <t>AVG</t>
   </si>
@@ -141,7 +225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,8 +244,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -187,6 +277,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -199,7 +300,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -207,6 +308,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -230,324 +342,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>TTC_stampede_gordon!$B$1:$E$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2048.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>TTC_stampede_gordon!$B$2:$E$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>21712.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18289.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29880.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>34765.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2072998816"/>
-        <c:axId val="-2079486592"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-2072998816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2079486592"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2079486592"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2072998816"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -786,42 +580,48 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>TTC_stampede_gordon!$B$3:$E$3</c:f>
+                <c:f>TTC_stampede_gordon!$B$3:$F$3</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>1079.5</c:v>
+                    <c:v>13482.08739666928</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5755.0</c:v>
+                    <c:v>25824.5736902996</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1109</c:v>
+                    <c:v>19812.88393829583</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>15723.5</c:v>
+                    <c:v>10262.55011193613</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>31085.56222857593</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>TTC_stampede_gordon!$B$3:$E$3</c:f>
+                <c:f>TTC_stampede_gordon!$B$3:$F$3</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>1079.5</c:v>
+                    <c:v>13482.08739666928</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5755.0</c:v>
+                    <c:v>25824.5736902996</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1109</c:v>
+                    <c:v>19812.88393829583</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>15723.5</c:v>
+                    <c:v>10262.55011193613</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>31085.56222857593</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -842,10 +642,10 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>TTC_stampede_gordon!$B$1:$E$1</c:f>
+              <c:f>TTC_stampede_gordon!$B$1:$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>32.0</c:v>
                 </c:pt>
@@ -856,6 +656,9 @@
                   <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2048.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -863,21 +666,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TTC_stampede_gordon!$B$2:$E$2</c:f>
+              <c:f>TTC_stampede_gordon!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>21712.5</c:v>
+                  <c:v>22559.28571428571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18289.0</c:v>
+                  <c:v>45147.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29880.0</c:v>
+                  <c:v>43496.42857142857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34765.5</c:v>
+                  <c:v>68992.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61463.33333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -894,11 +700,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2078750944"/>
-        <c:axId val="-2088925248"/>
+        <c:axId val="-2088268784"/>
+        <c:axId val="-2088483008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2078750944"/>
+        <c:axId val="-2088268784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,7 +803,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088925248"/>
+        <c:crossAx val="-2088483008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1005,10 +811,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2088925248"/>
+        <c:axId val="-2088483008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60000.0"/>
+          <c:max val="120000.0"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1119,7 +925,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2078750944"/>
+        <c:crossAx val="-2088268784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1168,7 +974,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1420,42 +1226,48 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Tw_stampede_gordon!$B$3:$E$3</c:f>
+                <c:f>Tw_stampede_gordon!$B$3:$F$3</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>1079.5</c:v>
+                    <c:v>11193.03794669662</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5737.5</c:v>
+                    <c:v>7860.075216606663</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8855.499999999998</c:v>
+                    <c:v>12557.03760750084</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>12017.5</c:v>
+                    <c:v>19654.53964100915</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>13556.04147849462</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Tw_stampede_gordon!$B$3:$E$3</c:f>
+                <c:f>Tw_stampede_gordon!$B$3:$F$3</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>1079.5</c:v>
+                    <c:v>11193.03794669662</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5737.5</c:v>
+                    <c:v>7860.075216606663</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8855.499999999998</c:v>
+                    <c:v>12557.03760750084</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>12017.5</c:v>
+                    <c:v>19654.53964100915</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>13556.04147849462</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1476,10 +1288,10 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>Tw_stampede_gordon!$B$1:$E$1</c:f>
+              <c:f>Tw_stampede_gordon!$B$1:$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>32.0</c:v>
                 </c:pt>
@@ -1490,6 +1302,9 @@
                   <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2048.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1497,21 +1312,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tw_stampede_gordon!$B$2:$E$2</c:f>
+              <c:f>Tw_stampede_gordon!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16308.5</c:v>
+                  <c:v>10038.14285714286</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12842.5</c:v>
+                  <c:v>7633.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20986.5</c:v>
+                  <c:v>16150.85714285714</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19057.5</c:v>
+                  <c:v>22883.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15451.83333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1528,11 +1346,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2074218384"/>
-        <c:axId val="-2038003120"/>
+        <c:axId val="-2087997520"/>
+        <c:axId val="-2087991632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2074218384"/>
+        <c:axId val="-2087997520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1631,7 +1449,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2038003120"/>
+        <c:crossAx val="-2087991632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1639,10 +1457,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2038003120"/>
+        <c:axId val="-2087991632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60000.0"/>
+          <c:max val="120000.0"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1753,7 +1571,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2074218384"/>
+        <c:crossAx val="-2087997520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1802,7 +1620,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2054,42 +1872,48 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Te_stampede_gordon!$B$3:$E$3</c:f>
+                <c:f>Te_stampede_gordon!$B$3:$F$3</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.0</c:v>
+                    <c:v>6410.266490263137</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>18.0</c:v>
+                    <c:v>28360.05378798043</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2234.0</c:v>
+                    <c:v>23984.46836620574</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3706</c:v>
+                    <c:v>9948.010288494871</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>36189.03798343729</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Te_stampede_gordon!$B$3:$E$3</c:f>
+                <c:f>Te_stampede_gordon!$B$3:$F$3</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.0</c:v>
+                    <c:v>6410.266490263137</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>18.0</c:v>
+                    <c:v>28360.05378798043</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2234.0</c:v>
+                    <c:v>23984.46836620574</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3706</c:v>
+                    <c:v>9948.010288494871</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>36189.03798343729</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2110,10 +1934,10 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>Te_stampede_gordon!$B$1:$E$1</c:f>
+              <c:f>Te_stampede_gordon!$B$1:$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>32.0</c:v>
                 </c:pt>
@@ -2124,6 +1948,9 @@
                   <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2048.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2131,21 +1958,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Te_stampede_gordon!$B$2:$E$2</c:f>
+              <c:f>Te_stampede_gordon!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5403.0</c:v>
+                  <c:v>12522.85714285714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5446.0</c:v>
+                  <c:v>39991.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8893.0</c:v>
+                  <c:v>36604.14285714285</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15707.0</c:v>
+                  <c:v>66821.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54327.16666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2162,11 +1992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2030552240"/>
-        <c:axId val="-2030550480"/>
+        <c:axId val="-2087865680"/>
+        <c:axId val="-2087859792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2030552240"/>
+        <c:axId val="-2087865680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2265,7 +2095,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2030550480"/>
+        <c:crossAx val="-2087859792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2273,10 +2103,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2030550480"/>
+        <c:axId val="-2087859792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60000.0"/>
+          <c:max val="120000.0"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2387,7 +2217,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2030552240"/>
+        <c:crossAx val="-2087865680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2414,6 +2244,2358 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:rPr>
+              <a:t>Experiment</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:rPr>
+              <a:t> 2 - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:rPr>
+              <a:t>TTC - Swift</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:rPr>
+              <a:t> on Stampede and Gordon</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="NimbusRomNo9L" charset="0"/>
+              <a:ea typeface="NimbusRomNo9L" charset="0"/>
+              <a:cs typeface="NimbusRomNo9L" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="NimbusRomNo9L" charset="0"/>
+              <a:ea typeface="NimbusRomNo9L" charset="0"/>
+              <a:cs typeface="NimbusRomNo9L" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TTCmeasured</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>TTC_stampede_gordon!$B$3:$F$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>13482.08739666928</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>25824.5736902996</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>19812.88393829583</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10262.55011193613</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>31085.56222857593</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>TTC_stampede_gordon!$B$3:$F$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>13482.08739666928</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>25824.5736902996</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>19812.88393829583</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10262.55011193613</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>31085.56222857593</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>TTC_stampede_gordon!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TTC_stampede_gordon!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>22559.28571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45147.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43496.42857142857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68992.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61463.33333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>TTCideal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>TTC_stampede_gordon!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TTC_stampede_gordon!$O$2:$S$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4800.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2087782064"/>
+        <c:axId val="-2088440656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2087782064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2088440656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2088440656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120000.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2087782064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="NimbusRomNo9L" charset="0"/>
+              <a:ea typeface="NimbusRomNo9L" charset="0"/>
+              <a:cs typeface="NimbusRomNo9L" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:rPr>
+              <a:t>Experiment </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:rPr>
+              <a:t>2 - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:rPr>
+              <a:t>Tw - Swift</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:rPr>
+              <a:t> on Stampede and Gordon</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="NimbusRomNo9L" charset="0"/>
+              <a:ea typeface="NimbusRomNo9L" charset="0"/>
+              <a:cs typeface="NimbusRomNo9L" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="NimbusRomNo9L" charset="0"/>
+              <a:ea typeface="NimbusRomNo9L" charset="0"/>
+              <a:cs typeface="NimbusRomNo9L" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tw</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Tw_stampede_gordon!$B$3:$F$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>11193.03794669662</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7860.075216606663</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>12557.03760750084</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>19654.53964100915</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>13556.04147849462</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Tw_stampede_gordon!$B$3:$F$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>11193.03794669662</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7860.075216606663</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>12557.03760750084</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>19654.53964100915</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>13556.04147849462</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tw_stampede_gordon!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tw_stampede_gordon!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10038.14285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7633.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16150.85714285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22883.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15451.83333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2088250288"/>
+        <c:axId val="-2087756240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2088250288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2087756240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2087756240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120000.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2088250288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="NimbusRomNo9L" charset="0"/>
+              <a:ea typeface="NimbusRomNo9L" charset="0"/>
+              <a:cs typeface="NimbusRomNo9L" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TTCmeasured</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>TTC_stampede_gordon!$B$3:$F$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>13482.08739666928</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>25824.5736902996</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>19812.88393829583</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10262.55011193613</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>31085.56222857593</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>TTC_stampede_gordon!$B$3:$F$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>13482.08739666928</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>25824.5736902996</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>19812.88393829583</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10262.55011193613</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>31085.56222857593</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>TTC_stampede_gordon!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TTC_stampede_gordon!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>22559.28571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45147.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43496.42857142857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68992.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61463.33333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>TTCideal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>TTC_stampede_gordon!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TTC_stampede_gordon!$O$2:$S$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4800.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2027926448"/>
+        <c:axId val="1762322944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2027926448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1762322944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1762322944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120000.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2027926448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="NimbusRomNo9L" charset="0"/>
+              <a:ea typeface="NimbusRomNo9L" charset="0"/>
+              <a:cs typeface="NimbusRomNo9L" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tw</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Tw_stampede_gordon!$B$3:$F$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>11193.03794669662</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7860.075216606663</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>12557.03760750084</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>19654.53964100915</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>13556.04147849462</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Tw_stampede_gordon!$B$3:$F$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>11193.03794669662</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7860.075216606663</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>12557.03760750084</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>19654.53964100915</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>13556.04147849462</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tw_stampede_gordon!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tw_stampede_gordon!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10038.14285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7633.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16150.85714285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22883.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15451.83333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1782717872"/>
+        <c:axId val="1782970320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1782717872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1782970320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1782970320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120000.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1782717872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="NimbusRomNo9L" charset="0"/>
+              <a:ea typeface="NimbusRomNo9L" charset="0"/>
+              <a:cs typeface="NimbusRomNo9L" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2596,6 +4778,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -4608,42 +6910,1516 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4741,89 +8517,195 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="TTC_stampede"/>
-      <sheetName val="Tw_stampede"/>
-      <sheetName val="Te_stampede"/>
-      <sheetName val="TTC_stampede_gordon"/>
-      <sheetName val="Tw_stampede_gordon"/>
-      <sheetName val="Te_stampede_gordon"/>
-      <sheetName val="plots"/>
-      <sheetName val="plots single"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1">
-            <v>8</v>
-          </cell>
-          <cell r="C1">
-            <v>32</v>
-          </cell>
-          <cell r="D1">
-            <v>256</v>
-          </cell>
-          <cell r="E1">
-            <v>2048</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>999</v>
-          </cell>
-          <cell r="C2">
-            <v>1006.5</v>
-          </cell>
-          <cell r="D2">
-            <v>1071</v>
-          </cell>
-          <cell r="E2">
-            <v>7926</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>7.4049532971743544</v>
-          </cell>
-          <cell r="C3">
-            <v>3.6855573979159968</v>
-          </cell>
-          <cell r="D3">
-            <v>17.402107152104694</v>
-          </cell>
-          <cell r="E3">
-            <v>46.538514515757093</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TTC-Time_to_completion-stampede_gordon_5" refreshOnLoad="1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TTC-Time_to_completion-stampede_gordon" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tw-Submitting_task-stampede_gordon_1" refreshOnLoad="1" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Te-Executing_task-stampede_gordon_5" refreshOnLoad="1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Te-Executing_task-stampede_gordon_4" refreshOnLoad="1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Te-Executing_task-stampede_gordon_3" refreshOnLoad="1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Te-Executing_task-stampede_gordon_2" refreshOnLoad="1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Te-Executing_task-stampede_gordon_1" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tw-Submitting_task-stampede_gordon" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TTC-Time_to_completion-stampede_gordon_4" refreshOnLoad="1" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Te-Executing_task-stampede_gordon" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TTC-Time_to_completion-stampede_gordon_3" refreshOnLoad="1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TTC-Time_to_completion-stampede_gordon_2" refreshOnLoad="1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TTC-Time_to_completion-stampede_gordon_1" refreshOnLoad="1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tw-Submitting_task-stampede_gordon_5" refreshOnLoad="1" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tw-Submitting_task-stampede_gordon_4" refreshOnLoad="1" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tw-Submitting_task-stampede_gordon_3" refreshOnLoad="1" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tw-Submitting_task-stampede_gordon_2" refreshOnLoad="1" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5089,18 +8971,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="5" width="6.1640625" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="3">
         <v>32</v>
@@ -5112,136 +8995,569 @@
         <v>512</v>
       </c>
       <c r="E1" s="3">
+        <v>1024</v>
+      </c>
+      <c r="F1" s="3">
         <v>2048</v>
       </c>
+      <c r="H1" s="3">
+        <v>32</v>
+      </c>
+      <c r="I1" s="3">
+        <v>128</v>
+      </c>
+      <c r="J1" s="3">
+        <v>512</v>
+      </c>
+      <c r="K1" s="3">
+        <v>1024</v>
+      </c>
+      <c r="L1" s="3">
+        <v>2048</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="3">
+        <v>32</v>
+      </c>
+      <c r="P1" s="3">
+        <v>128</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>512</v>
+      </c>
+      <c r="R1" s="3">
+        <v>1024</v>
+      </c>
+      <c r="S1" s="3">
+        <v>2048</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <f>AVERAGE(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26)))</f>
-        <v>21712.5</v>
+        <f>AVERAGE(B4:B14)</f>
+        <v>22559.285714285714</v>
       </c>
       <c r="C2" s="5">
-        <f>AVERAGE(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26)))</f>
-        <v>18289</v>
+        <f>AVERAGE(C4:C14)</f>
+        <v>45147</v>
       </c>
       <c r="D2" s="5">
-        <f>AVERAGE(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26)))</f>
-        <v>29880</v>
+        <f>AVERAGE(D4:D14)</f>
+        <v>43496.428571428572</v>
       </c>
       <c r="E2" s="5">
-        <f>AVERAGE(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26)))</f>
-        <v>34765.5</v>
+        <f>AVERAGE(E4:E14)</f>
+        <v>68992.600000000006</v>
+      </c>
+      <c r="F2" s="5">
+        <f>AVERAGE(F4:F14)</f>
+        <v>61463.333333333336</v>
+      </c>
+      <c r="H2" s="11">
+        <f>AVERAGE(H4:H11)</f>
+        <v>6.7640112994424308</v>
+      </c>
+      <c r="I2" s="11">
+        <f t="shared" ref="I2:K2" si="0">AVERAGE(I4:I11)</f>
+        <v>3.779780686789219</v>
+      </c>
+      <c r="J2" s="11">
+        <f t="shared" si="0"/>
+        <v>3.2986160962834106</v>
+      </c>
+      <c r="K2" s="11">
+        <f t="shared" si="0"/>
+        <v>3.5402715913277327</v>
+      </c>
+      <c r="L2" s="11">
+        <f>AVERAGE(L4:L11)</f>
+        <v>10.538980266858733</v>
+      </c>
+      <c r="M2" s="10">
+        <f>AVERAGE(H2:L2)</f>
+        <v>5.5843319881403053</v>
+      </c>
+      <c r="O2" s="8">
+        <v>1200</v>
+      </c>
+      <c r="P2" s="8">
+        <v>1200</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>1200</v>
+      </c>
+      <c r="R2" s="8">
+        <v>2400</v>
+      </c>
+      <c r="S2" s="8">
+        <v>4800</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <f>_xlfn.STDEV.S(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26)))/SQRT(COUNT(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26))))</f>
-        <v>1079.4999999999998</v>
-      </c>
-      <c r="C3" s="5">
-        <f>_xlfn.STDEV.S(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26)))/SQRT(COUNT(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26))))</f>
-        <v>5755</v>
-      </c>
-      <c r="D3" s="5">
-        <f>_xlfn.STDEV.S(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26)))/SQRT(COUNT(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26))))</f>
-        <v>11089.999999999998</v>
-      </c>
-      <c r="E3" s="5">
-        <f>_xlfn.STDEV.S(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26)))/SQRT(COUNT(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26))))</f>
-        <v>15723.499999999998</v>
-      </c>
+      <c r="B3" s="12">
+        <f>_xlfn.STDEV.S(B4:B14)</f>
+        <v>13482.087396669276</v>
+      </c>
+      <c r="C3" s="4">
+        <f>_xlfn.STDEV.S(C4:C14)</f>
+        <v>25824.5736902996</v>
+      </c>
+      <c r="D3" s="4">
+        <f>_xlfn.STDEV.S(D4:D14)</f>
+        <v>19812.883938295829</v>
+      </c>
+      <c r="E3" s="4">
+        <f>_xlfn.STDEV.S(E4:E14)</f>
+        <v>10262.550111936125</v>
+      </c>
+      <c r="F3" s="4">
+        <f>_xlfn.STDEV.S(F4:F14)</f>
+        <v>31085.562228575927</v>
+      </c>
+      <c r="H3" s="13">
+        <f>_xlfn.STDEV.S(H4:H11)</f>
+        <v>3.1234767135612627</v>
+      </c>
+      <c r="I3" s="13">
+        <f t="shared" ref="I3:K3" si="1">_xlfn.STDEV.S(I4:I11)</f>
+        <v>2.6769709543254345</v>
+      </c>
+      <c r="J3" s="13">
+        <f t="shared" si="1"/>
+        <v>1.5646718229659833</v>
+      </c>
+      <c r="K3" s="13">
+        <f t="shared" si="1"/>
+        <v>0.51931121435128558</v>
+      </c>
+      <c r="L3" s="13">
+        <f>_xlfn.STDEV.S(L4:L11)</f>
+        <v>7.5388137887061779</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22792</v>
+        <v>20633</v>
       </c>
       <c r="C4">
-        <v>24044</v>
+        <v>12534</v>
       </c>
       <c r="D4">
-        <v>40970</v>
+        <v>18790</v>
       </c>
       <c r="E4">
+        <v>78284</v>
+      </c>
+      <c r="F4">
         <v>19042</v>
       </c>
+      <c r="H4" s="7">
+        <f>(O4/B4)*100</f>
+        <v>5.8159259438763149</v>
+      </c>
+      <c r="I4" s="7">
+        <f>(P4/C4)*100</f>
+        <v>9.5739588319770217</v>
+      </c>
+      <c r="J4" s="7">
+        <f>(Q4/D4)*100</f>
+        <v>6.386375731772219</v>
+      </c>
+      <c r="K4" s="7">
+        <f>(R4/E4)*100</f>
+        <v>3.0657605640999437</v>
+      </c>
+      <c r="L4" s="7">
+        <f>(S4/F4)*100</f>
+        <v>25.207436193677136</v>
+      </c>
+      <c r="O4" s="8">
+        <v>1200</v>
+      </c>
+      <c r="P4" s="8">
+        <v>1200</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>1200</v>
+      </c>
+      <c r="R4" s="8">
+        <v>2400</v>
+      </c>
+      <c r="S4" s="8">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20633</v>
+        <v>11182</v>
       </c>
       <c r="C5">
-        <v>12534</v>
+        <v>24044</v>
       </c>
       <c r="D5">
-        <v>18790</v>
+        <v>40970</v>
       </c>
       <c r="E5">
+        <v>80928</v>
+      </c>
+      <c r="F5">
         <v>50489</v>
       </c>
+      <c r="H5" s="7">
+        <f t="shared" ref="H5:H10" si="2">(O5/B5)*100</f>
+        <v>10.731532820604544</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" ref="I5:I11" si="3">(P5/C5)*100</f>
+        <v>4.9908501081350858</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" ref="J5:J10" si="4">(Q5/D5)*100</f>
+        <v>2.9289724188430557</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" ref="K5:K8" si="5">(R5/E5)*100</f>
+        <v>2.9655990510083039</v>
+      </c>
+      <c r="L5" s="7">
+        <f t="shared" ref="L5:L9" si="6">(S5/F5)*100</f>
+        <v>9.5070213313791125</v>
+      </c>
+      <c r="O5" s="8">
+        <v>1200</v>
+      </c>
+      <c r="P5" s="8">
+        <v>1200</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>1200</v>
+      </c>
+      <c r="R5" s="8">
+        <v>2400</v>
+      </c>
+      <c r="S5" s="8">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>22792</v>
+      </c>
+      <c r="C6">
+        <v>47131</v>
+      </c>
+      <c r="D6">
+        <v>61620</v>
+      </c>
+      <c r="E6">
+        <v>67106</v>
+      </c>
+      <c r="F6">
+        <v>90171</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="2"/>
+        <v>5.2650052650052652</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="3"/>
+        <v>2.5460949269058579</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="4"/>
+        <v>1.9474196689386565</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="5"/>
+        <v>3.5764313176169042</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="6"/>
+        <v>5.3232192168213723</v>
+      </c>
+      <c r="O6" s="8">
+        <v>1200</v>
+      </c>
+      <c r="P6" s="8">
+        <v>1200</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>1200</v>
+      </c>
+      <c r="R6" s="8">
+        <v>2400</v>
+      </c>
+      <c r="S6" s="8">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>28211</v>
+      </c>
+      <c r="C7">
+        <v>57507</v>
+      </c>
+      <c r="D7">
+        <v>34681</v>
+      </c>
+      <c r="E7">
+        <v>60301</v>
+      </c>
+      <c r="F7">
+        <v>58426</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="2"/>
+        <v>4.2536599198894045</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="3"/>
+        <v>2.0867024883927172</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="4"/>
+        <v>3.460107840027681</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="5"/>
+        <v>3.9800334986152799</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" si="6"/>
+        <v>8.2155204874542154</v>
+      </c>
+      <c r="O7" s="8">
+        <v>1200</v>
+      </c>
+      <c r="P7" s="8">
+        <v>1200</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>1200</v>
+      </c>
+      <c r="R7" s="8">
+        <v>2400</v>
+      </c>
+      <c r="S7" s="8">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>12281</v>
+      </c>
+      <c r="C8">
+        <v>68957</v>
+      </c>
+      <c r="D8">
+        <v>78000</v>
+      </c>
+      <c r="E8">
+        <v>58344</v>
+      </c>
+      <c r="F8">
+        <v>46224</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="2"/>
+        <v>9.7711912710691315</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="3"/>
+        <v>1.7402149165421927</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="4"/>
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="5"/>
+        <v>4.113533525298231</v>
+      </c>
+      <c r="L8" s="7">
+        <f t="shared" si="6"/>
+        <v>10.384215991692628</v>
+      </c>
+      <c r="O8" s="8">
+        <v>1200</v>
+      </c>
+      <c r="P8" s="8">
+        <v>1200</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>1200</v>
+      </c>
+      <c r="R8" s="8">
+        <v>2400</v>
+      </c>
+      <c r="S8" s="8">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>49618</v>
+      </c>
+      <c r="C9">
+        <v>34626</v>
+      </c>
+      <c r="D9">
+        <v>33722</v>
+      </c>
+      <c r="F9">
+        <v>104428</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="2"/>
+        <v>2.4184771655447621</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="3"/>
+        <v>3.4656038814763472</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="4"/>
+        <v>3.5585077990629266</v>
+      </c>
+      <c r="L9" s="7">
+        <f t="shared" si="6"/>
+        <v>4.5964683801279351</v>
+      </c>
+      <c r="O9" s="8">
+        <v>1200</v>
+      </c>
+      <c r="P9" s="8">
+        <v>1200</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>1200</v>
+      </c>
+      <c r="R9" s="8">
+        <v>2400</v>
+      </c>
+      <c r="S9" s="8">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>13198</v>
+      </c>
+      <c r="C10">
+        <v>89692</v>
+      </c>
+      <c r="D10">
+        <v>36692</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="2"/>
+        <v>9.0922867101075919</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="3"/>
+        <v>1.3379119653926772</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="4"/>
+        <v>3.2704676768777934</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1200</v>
+      </c>
+      <c r="P10" s="8">
+        <v>1200</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>1200</v>
+      </c>
+      <c r="R10" s="8">
+        <v>2400</v>
+      </c>
+      <c r="S10" s="8">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C11">
+        <v>26685</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="3"/>
+        <v>4.4969083754918495</v>
+      </c>
+      <c r="O11" s="8">
+        <v>1200</v>
+      </c>
+      <c r="P11" s="8">
+        <v>1200</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>1200</v>
+      </c>
+      <c r="R11" s="8">
+        <v>2400</v>
+      </c>
+      <c r="S11" s="8">
+        <v>4800</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="5" width="6.1640625" customWidth="1"/>
+    <col min="2" max="6" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="3">
         <v>32</v>
@@ -5253,113 +9569,199 @@
         <v>512</v>
       </c>
       <c r="E1" s="3">
+        <v>1024</v>
+      </c>
+      <c r="F1" s="3">
         <v>2048</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6">
-        <f>AVERAGE(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26)))</f>
-        <v>16308.5</v>
+        <f>AVERAGE(B4:B14)</f>
+        <v>10038.142857142857</v>
       </c>
       <c r="C2" s="6">
-        <f>AVERAGE(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26)))</f>
-        <v>12842.5</v>
+        <f>AVERAGE(C4:C14)</f>
+        <v>7633.125</v>
       </c>
       <c r="D2" s="6">
-        <f>AVERAGE(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26)))</f>
-        <v>20986.5</v>
+        <f>AVERAGE(D4:D14)</f>
+        <v>16150.857142857143</v>
       </c>
       <c r="E2" s="6">
-        <f>AVERAGE(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26)))</f>
-        <v>19057.5</v>
+        <f>AVERAGE(E4:E14)</f>
+        <v>22883</v>
+      </c>
+      <c r="F2" s="6">
+        <f>AVERAGE(F4:F14)</f>
+        <v>15451.833333333334</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <f>_xlfn.STDEV.S(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26)))/SQRT(COUNT(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26))))</f>
-        <v>1079.4999999999998</v>
+        <f>_xlfn.STDEV.S(B4:B14)</f>
+        <v>11193.037946696619</v>
       </c>
       <c r="C3" s="4">
-        <f>_xlfn.STDEV.S(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26)))/SQRT(COUNT(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26))))</f>
-        <v>5737.5</v>
+        <f>_xlfn.STDEV.S(C4:C14)</f>
+        <v>7860.0752166066632</v>
       </c>
       <c r="D3" s="4">
-        <f>_xlfn.STDEV.S(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26)))/SQRT(COUNT(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26))))</f>
-        <v>8855.4999999999982</v>
+        <f>_xlfn.STDEV.S(D4:D14)</f>
+        <v>12557.037607500843</v>
       </c>
       <c r="E3" s="4">
-        <f>_xlfn.STDEV.S(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26)))/SQRT(COUNT(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26))))</f>
-        <v>12017.5</v>
+        <f>_xlfn.STDEV.S(E4:E14)</f>
+        <v>19654.539641009149</v>
+      </c>
+      <c r="F3" s="4">
+        <f>_xlfn.STDEV.S(F4:F14)</f>
+        <v>13556.041478494622</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17388</v>
+        <v>15229</v>
       </c>
       <c r="C4">
-        <v>18580</v>
+        <v>7105</v>
       </c>
       <c r="D4">
-        <v>29842</v>
+        <v>12131</v>
       </c>
       <c r="E4">
+        <v>4236</v>
+      </c>
+      <c r="F4">
         <v>7040</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15229</v>
+        <v>113</v>
       </c>
       <c r="C5">
-        <v>7105</v>
+        <v>18580</v>
       </c>
       <c r="D5">
-        <v>12131</v>
+        <v>29842</v>
       </c>
       <c r="E5">
+        <v>52810</v>
+      </c>
+      <c r="F5">
         <v>31075</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>17388</v>
+      </c>
+      <c r="C6">
+        <v>20008</v>
+      </c>
+      <c r="D6">
+        <v>34112</v>
+      </c>
+      <c r="E6">
+        <v>6099</v>
+      </c>
+      <c r="F6">
+        <v>3388</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>6379</v>
+      </c>
+      <c r="C7">
+        <v>5571</v>
+      </c>
+      <c r="D7">
+        <v>7406</v>
+      </c>
+      <c r="E7">
+        <v>24051</v>
+      </c>
+      <c r="F7">
+        <v>19202</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>952</v>
+      </c>
+      <c r="C8">
+        <v>8407</v>
+      </c>
+      <c r="D8">
+        <v>6273</v>
+      </c>
+      <c r="E8">
+        <v>27219</v>
+      </c>
+      <c r="F8">
+        <v>30899</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>29680</v>
+      </c>
+      <c r="C9">
+        <v>106</v>
+      </c>
+      <c r="D9">
+        <v>1516</v>
+      </c>
+      <c r="F9">
+        <v>1107</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>526</v>
+      </c>
+      <c r="C10">
+        <v>572</v>
+      </c>
+      <c r="D10">
+        <v>21776</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C11">
+        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -5370,19 +9772,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="5.1640625" customWidth="1"/>
-    <col min="4" max="5" width="6.1640625" customWidth="1"/>
+    <col min="2" max="5" width="6.1640625" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="3">
         <v>32</v>
@@ -5394,52 +9796,63 @@
         <v>512</v>
       </c>
       <c r="E1" s="3">
+        <v>1024</v>
+      </c>
+      <c r="F1" s="3">
         <v>2048</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6">
-        <f>AVERAGE(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26)))</f>
-        <v>5403</v>
+        <f>AVERAGE(B4:B11)</f>
+        <v>12522.857142857143</v>
       </c>
       <c r="C2" s="6">
-        <f>AVERAGE(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26)))</f>
-        <v>5446</v>
+        <f t="shared" ref="C2:F2" si="0">AVERAGE(C4:C11)</f>
+        <v>39991</v>
       </c>
       <c r="D2" s="6">
-        <f>AVERAGE(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26)))</f>
-        <v>8893</v>
+        <f t="shared" si="0"/>
+        <v>36604.142857142855</v>
       </c>
       <c r="E2" s="6">
-        <f>AVERAGE(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26)))</f>
-        <v>15707</v>
+        <f t="shared" si="0"/>
+        <v>66821.8</v>
+      </c>
+      <c r="F2" s="6">
+        <f t="shared" si="0"/>
+        <v>54327.166666666664</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <f>_xlfn.STDEV.S(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26)))/SQRT(COUNT(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26))))</f>
-        <v>0</v>
+        <f>_xlfn.STDEV.S(B4:B11)</f>
+        <v>6410.2664902631377</v>
       </c>
       <c r="C3" s="4">
-        <f>_xlfn.STDEV.S(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26)))/SQRT(COUNT(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26))))</f>
-        <v>18</v>
+        <f t="shared" ref="C3:F3" si="1">_xlfn.STDEV.S(C4:C11)</f>
+        <v>28360.053787980425</v>
       </c>
       <c r="D3" s="4">
-        <f>_xlfn.STDEV.S(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26)))/SQRT(COUNT(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26))))</f>
-        <v>2234</v>
+        <f t="shared" si="1"/>
+        <v>23984.468366205743</v>
       </c>
       <c r="E3" s="4">
-        <f>_xlfn.STDEV.S(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26)))/SQRT(COUNT(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26))))</f>
-        <v>3705.9999999999995</v>
+        <f t="shared" si="1"/>
+        <v>9948.0102884948719</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" si="1"/>
+        <v>36189.037983437287</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -5447,60 +9860,135 @@
         <v>5403</v>
       </c>
       <c r="C4">
-        <v>5464</v>
+        <v>5428</v>
       </c>
       <c r="D4">
-        <v>11127</v>
+        <v>6659</v>
       </c>
       <c r="E4">
+        <v>74047</v>
+      </c>
+      <c r="F4">
         <v>12001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5403</v>
+        <v>11075</v>
       </c>
       <c r="C5">
-        <v>5428</v>
+        <v>5464</v>
       </c>
       <c r="D5">
-        <v>6659</v>
+        <v>11127</v>
       </c>
       <c r="E5">
+        <v>80658</v>
+      </c>
+      <c r="F5">
         <v>19413</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>5403</v>
+      </c>
+      <c r="C6">
+        <v>46692</v>
+      </c>
+      <c r="D6">
+        <v>61170</v>
+      </c>
+      <c r="E6">
+        <v>61005</v>
+      </c>
+      <c r="F6">
+        <v>86782</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>21831</v>
+      </c>
+      <c r="C7">
+        <v>51936</v>
+      </c>
+      <c r="D7">
+        <v>34477</v>
+      </c>
+      <c r="E7">
+        <v>60242</v>
+      </c>
+      <c r="F7">
+        <v>58358</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>11332</v>
+      </c>
+      <c r="C8">
+        <v>60549</v>
+      </c>
+      <c r="D8">
+        <v>72508</v>
+      </c>
+      <c r="E8">
+        <v>58157</v>
+      </c>
+      <c r="F8">
+        <v>46089</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>19938</v>
+      </c>
+      <c r="C9">
+        <v>34519</v>
+      </c>
+      <c r="D9">
+        <v>33665</v>
+      </c>
+      <c r="F9">
+        <v>103320</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>12678</v>
+      </c>
+      <c r="C10">
+        <v>89119</v>
+      </c>
+      <c r="D10">
+        <v>36623</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C11">
+        <v>26221</v>
       </c>
     </row>
   </sheetData>
@@ -5512,8 +10000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView topLeftCell="F9" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
